--- a/existing_attributions.xlsx
+++ b/existing_attributions.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -786,9 +786,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -818,7 +816,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -848,9 +846,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -880,7 +876,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -910,7 +906,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -940,7 +936,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -970,7 +966,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1000,7 +996,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1026,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1056,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1086,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1116,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1146,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1176,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1206,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1240,9 +1236,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1272,8 +1266,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1303,9 +1296,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1326,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1356,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1386,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1416,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1446,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1476,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1506,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1536,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1566,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1596,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1626,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1656,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1686,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1716,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1746,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1776,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1806,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1836,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1866,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1896,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1926,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1956,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1986,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2016,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2046,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2085,8 +2076,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2116,9 +2106,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2148,8 +2136,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2179,9 +2166,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2211,9 +2196,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2243,8 +2226,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2274,9 +2256,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2306,8 +2286,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2337,9 +2316,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2369,8 +2346,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2400,8 +2376,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2431,9 +2406,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2463,8 +2436,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2494,9 +2466,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2526,9 +2496,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2558,8 +2526,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2589,9 +2556,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2621,9 +2586,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2653,8 +2616,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2684,9 +2646,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2676,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2746,9 +2706,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2778,8 +2736,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2809,9 +2766,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2841,9 +2796,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2826,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2903,9 +2856,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2886,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2916,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2946,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3025,9 +2976,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3057,8 +3006,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3036,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3118,9 +3066,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3150,8 +3096,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3181,9 +3126,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3213,9 +3156,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3186,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3275,9 +3216,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3307,8 +3246,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3276,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3368,8 +3306,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3399,8 +3336,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3430,7 +3366,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3460,8 +3396,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3426,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3521,9 +3456,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3553,8 +3486,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3516,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3614,9 +3546,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3646,8 +3576,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3677,8 +3606,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3708,8 +3636,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3666,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3769,9 +3696,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3801,8 +3726,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3832,9 +3756,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3864,7 +3786,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3816,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3924,7 +3846,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3954,9 +3876,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3986,8 +3906,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4017,9 +3936,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4049,7 +3966,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4079,7 +3996,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4109,9 +4026,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4141,8 +4056,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4172,9 +4086,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4204,8 +4116,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4235,8 +4146,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4266,9 +4176,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4298,7 +4206,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4328,8 +4236,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4359,9 +4266,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4296,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4326,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4451,8 +4356,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4386,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4512,9 +4416,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4544,9 +4446,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4576,9 +4476,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4608,8 +4506,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4639,7 +4536,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4669,9 +4566,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4596,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4731,9 +4626,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4656,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4793,9 +4686,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4716,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4746,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4885,8 +4776,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4916,9 +4806,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4948,9 +4836,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4980,8 +4866,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5011,7 +4896,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5041,8 +4926,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5072,7 +4956,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5102,7 +4986,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5132,8 +5016,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5163,9 +5046,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5076,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5106,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5255,9 +5136,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5287,8 +5166,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5318,9 +5196,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5350,7 +5226,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5380,7 +5256,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5410,8 +5286,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5316,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5346,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5501,7 +5376,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5406,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5561,8 +5436,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5592,8 +5466,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5623,8 +5496,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5654,9 +5526,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5556,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5586,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5746,9 +5616,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5778,7 +5646,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5808,7 +5676,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5838,7 +5706,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5868,8 +5736,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5899,8 +5766,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5796,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5960,7 +5826,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5990,7 +5856,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6020,7 +5886,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6050,7 +5916,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6080,7 +5946,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6110,7 +5976,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6140,8 +6006,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6171,8 +6036,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6202,7 +6066,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6232,8 +6096,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6263,8 +6126,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6294,8 +6156,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6325,9 +6186,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6357,8 +6216,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6388,8 +6246,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6419,7 +6276,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6449,8 +6306,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6480,8 +6336,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6511,9 +6366,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6543,8 +6396,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6574,9 +6426,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6456,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6486,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6516,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6546,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6576,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6756,8 +6606,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6787,7 +6636,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6817,7 +6666,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6847,8 +6696,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6878,7 +6726,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6908,9 +6756,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6786,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6970,7 +6816,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7000,8 +6846,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7031,9 +6876,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7063,9 +6906,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7095,8 +6936,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7126,9 +6966,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7158,7 +6996,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7188,9 +7026,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7220,8 +7056,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7251,9 +7086,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7283,8 +7116,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7314,8 +7146,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7345,9 +7176,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7377,8 +7206,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7408,9 +7236,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7440,7 +7266,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7470,7 +7296,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7500,7 +7326,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7530,7 +7356,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7560,7 +7386,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7590,7 +7416,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7620,7 +7446,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7650,8 +7476,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7681,7 +7506,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7536,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7741,7 +7566,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7771,7 +7596,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7801,8 +7626,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7832,7 +7656,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7862,7 +7686,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7892,8 +7716,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7923,9 +7746,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7955,8 +7776,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7986,9 +7806,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8018,9 +7836,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8050,7 +7866,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8080,9 +7896,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8112,8 +7926,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8143,9 +7956,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8175,7 +7986,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8016,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8046,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8265,9 +8076,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8297,8 +8106,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8328,8 +8136,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8359,9 +8166,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8391,8 +8196,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8422,8 +8226,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8453,9 +8256,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8485,8 +8286,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8516,8 +8316,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8547,7 +8346,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8376,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8607,7 +8406,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8436,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8667,7 +8466,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8697,8 +8496,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8728,7 +8526,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8758,8 +8556,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8789,9 +8586,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8821,8 +8616,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8852,9 +8646,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8884,8 +8676,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8915,9 +8706,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8947,9 +8736,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8979,7 +8766,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9009,7 +8796,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9039,7 +8826,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9069,7 +8856,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9099,7 +8886,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9129,7 +8916,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9159,7 +8946,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9189,7 +8976,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9219,7 +9006,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9249,7 +9036,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9279,7 +9066,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9309,7 +9096,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9339,7 +9126,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9369,7 +9156,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9399,9 +9186,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9431,8 +9216,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9462,7 +9246,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9492,8 +9276,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9523,9 +9306,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9555,8 +9336,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9586,8 +9366,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9617,9 +9396,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9649,8 +9426,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9680,8 +9456,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9711,9 +9486,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9743,8 +9516,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9774,8 +9546,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9805,9 +9576,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9837,8 +9606,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9868,8 +9636,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9899,9 +9666,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9931,8 +9696,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9962,8 +9726,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9993,9 +9756,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10025,8 +9786,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10056,8 +9816,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10087,7 +9846,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10117,7 +9876,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10147,7 +9906,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10177,7 +9936,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10207,7 +9966,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10237,8 +9996,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10268,8 +10026,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10299,7 +10056,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10329,7 +10086,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10359,7 +10116,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10389,7 +10146,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>['sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10419,7 +10176,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10449,8 +10206,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo' 'bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10480,7 +10236,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10510,7 +10266,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10540,8 +10296,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>['bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo' 'bo'
- 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10571,7 +10326,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10356,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10631,9 +10386,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10663,8 +10416,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10694,7 +10446,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10724,9 +10476,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10756,8 +10506,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>['sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa'
- 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa' 'sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10787,7 +10536,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>['bo' 'bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10817,7 +10566,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10847,7 +10596,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>['bo']</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10626,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10907,7 +10656,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>['sa']</t>
+          <t>sa</t>
         </is>
       </c>
     </row>

--- a/existing_attributions.xlsx
+++ b/existing_attributions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F341"/>
+  <dimension ref="A1:F359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Gö Chödrup</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:g-ch-drup</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2251,12 +2251,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2266,12 +2266,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2281,12 +2281,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2326,12 +2326,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2356,12 +2356,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2371,12 +2371,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Munivarman</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:munivarman</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2416,12 +2416,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2431,12 +2431,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2446,12 +2446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2476,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2506,12 +2506,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2551,12 +2551,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Gö Chödrup</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2671,12 +2671,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>eft:g-ch-drup</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2701,12 +2701,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2716,12 +2716,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2746,12 +2746,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Danaśila</t>
+          <t>Gö Chödrup</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:g-ch-drup</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2836,12 +2836,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2866,12 +2866,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>t. Vidyākarasiṃha</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>eft:t-vidyakarasimha</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2896,12 +2896,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>dpal dbyangs</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>eft:dpal-dbyangs</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2926,27 +2926,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ska ba dpal brtsegs</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>reviser</t>
+          <t>translatorTib</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>eft:ska-ba-dpal-brtsegs</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2956,12 +2956,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Danaśila</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Munivarman</t>
+          <t>t. Vidyākarasiṃha</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>eft:munivarman</t>
+          <t>eft:t-vidyakarasimha</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3046,12 +3046,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>dpal dbyangs</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:dpal-dbyangs</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3076,27 +3076,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>ska ba dpal brtsegs</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>translatorTib</t>
+          <t>reviser</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:ska-ba-dpal-brtsegs</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3106,12 +3106,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3136,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Munivarman</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:munivarman</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3226,12 +3226,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Yeshé Nyingpo</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>eft:yesh-nyingpo</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3316,12 +3316,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3331,12 +3331,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3346,12 +3346,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Leki Dé</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>eft:leki-d-</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3406,12 +3406,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Jñānagarbha</t>
+          <t>Yeshé Nyingpo</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>eft:jnanagarbha</t>
+          <t>eft:yesh-nyingpo</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3436,12 +3436,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3481,12 +3481,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Yeshé De</t>
+          <t>Leki Dé</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>eft:yesh-de</t>
+          <t>eft:leki-d-</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3541,12 +3541,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3556,12 +3556,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Jñānagarbha</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:jnanagarbha</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3586,12 +3586,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3601,12 +3601,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3616,12 +3616,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3646,12 +3646,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Yeshé Dé (ye shes sde)</t>
+          <t>Yeshé De</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>eft:yesh-d-ye-shes-sde-</t>
+          <t>eft:yesh-de</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3676,12 +3676,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>527</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3691,12 +3691,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>527</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>527</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>wang phab zhwun (wang phan zhun)</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>eft:wang-phab-zhwun-wang-phan-zhun-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3796,12 +3796,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>dge ba'i blo gros</t>
+          <t>Yeshé Dé (ye shes sde)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>eft:dge-ba-i-blo-gros</t>
+          <t>eft:yesh-d-ye-shes-sde-</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3826,12 +3826,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>rgya mtsho'i sde</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3841,12 +3841,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>eft:rgya-mtsho-i-sde</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3856,12 +3856,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -3886,12 +3886,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3901,12 +3901,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3916,12 +3916,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>wang phab zhwun (wang phan zhun)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:wang-phab-zhwun-wang-phan-zhun-</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3946,12 +3946,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Śrīlendrabodhi</t>
+          <t>dge ba'i blo gros</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3961,12 +3961,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>eft:srilendrabodhi</t>
+          <t>eft:dge-ba-i-blo-gros</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3976,12 +3976,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Lotsawa Bandé Dharmatāśīla</t>
+          <t>rgya mtsho'i sde</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>eft:lotsawa-band-dharmatasila</t>
+          <t>eft:rgya-mtsho-i-sde</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4036,12 +4036,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4096,12 +4096,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Śrīlendrabodhi</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:srilendrabodhi</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4126,12 +4126,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Lotsawa Bandé Dharmatāśīla</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:lotsawa-band-dharmatasila</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4186,12 +4186,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Munivarman</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>eft:munivarman</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4216,12 +4216,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4231,12 +4231,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4276,12 +4276,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Prajñāvarma</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4291,12 +4291,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>eft:prajnavarma</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4306,12 +4306,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4336,12 +4336,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Munivarman</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4351,12 +4351,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:munivarman</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Śilendrabodhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4426,12 +4426,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Prajñāvarma</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4441,12 +4441,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:prajnavarma</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4456,12 +4456,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4486,12 +4486,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4501,12 +4501,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4516,12 +4516,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Surendra­bodhi</t>
+          <t>Śilendrabodhi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Surendra­bodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4591,12 +4591,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4636,12 +4636,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4666,12 +4666,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Surendra­bodhi</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Dīpaṃkaraśrījñāna</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4711,12 +4711,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>eft:dipamkarasrijnana</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4726,12 +4726,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>847</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Gewai Lodrö</t>
+          <t>Surendra­bodhi</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4741,12 +4741,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>eft:gewai-lodr-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>847</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4786,12 +4786,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4801,12 +4801,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4816,12 +4816,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4846,12 +4846,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Dīpaṃkaraśrījñāna</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:dipamkarasrijnana</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -4876,12 +4876,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Buddhaprabha</t>
+          <t>Gewai Lodrö</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4891,12 +4891,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>eft:buddhaprabha</t>
+          <t>eft:gewai-lodr-</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4906,12 +4906,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4921,12 +4921,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4951,12 +4951,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4966,12 +4966,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>prajnavarma</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>eft:prajnavarma</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -4996,12 +4996,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5026,12 +5026,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Buddhaprabha</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:buddhaprabha</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5056,12 +5056,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Danasila</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5086,12 +5086,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Munivarman</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>eft:munivarman</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5116,12 +5116,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>prajnavarma</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5131,12 +5131,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:prajnavarma</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5146,12 +5146,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5161,12 +5161,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5191,12 +5191,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5206,12 +5206,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>Danasila</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5236,12 +5236,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>danasila</t>
+          <t>Munivarman</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:munivarman</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>dgon gling rma</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5311,12 +5311,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>eft:dgon-gling-rma</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5326,12 +5326,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>dpal gyi lhun po</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>eft:dpal-gyi-lhun-po</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5356,12 +5356,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>dpal brtsegs</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5371,12 +5371,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>eft:dpal-brtsegs</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5386,12 +5386,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>danasila</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5446,12 +5446,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>dgon gling rma</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:dgon-gling-rma</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5476,12 +5476,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>157</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>dpal gyi lhun po</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:dpal-gyi-lhun-po</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5506,12 +5506,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>157</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>dpal brtsegs</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:dpal-brtsegs</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5536,12 +5536,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>158</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5566,12 +5566,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>158</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Dharmapāla</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5581,12 +5581,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>eft:dharmapala</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5596,12 +5596,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5611,7 +5611,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Dharmatāśīla</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>eft:dharmatasila</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Devendrarakṣita</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>eft:devendraraksita</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Kumārarakṣita</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>eft:kumararaksita</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -5716,12 +5716,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Dharmapāla</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:dharmapala</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -5746,12 +5746,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5761,12 +5761,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>t. Jñānagarbha</t>
+          <t>Dharmatāśīla</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>eft:t-jnanagarbha</t>
+          <t>eft:dharmatasila</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -5806,12 +5806,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ye shes snying po</t>
+          <t>Devendrarakṣita</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>eft:ye-shes-snying-po</t>
+          <t>eft:devendraraksita</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5836,27 +5836,27 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>dpal brtsegs</t>
+          <t>Kumārarakṣita</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>reviser</t>
+          <t>translatorTib</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>eft:dpal-brtsegs</t>
+          <t>eft:kumararaksita</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5866,12 +5866,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Viśuddhasiṃha</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>eft:visuddhasimha</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -5896,12 +5896,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>dge ba dpal</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>eft:dge-ba-dpal</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -5926,22 +5926,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>163</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Vidyākarasiṃha</t>
+          <t>t. Jñānagarbha</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>reviser</t>
+          <t>translatorTib</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>eft:vidyakarasimha</t>
+          <t>eft:t-jnanagarbha</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>163</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Devacandra</t>
+          <t>ye shes snying po</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5971,12 +5971,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>eft:devacandra</t>
+          <t>eft:ye-shes-snying-po</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5986,27 +5986,27 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>163</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>dpal brtsegs</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>translatorTib</t>
+          <t>reviser</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:dpal-brtsegs</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6016,12 +6016,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Viśuddhasiṃha</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6031,12 +6031,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:visuddhasimha</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6046,12 +6046,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>dge ba dpal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6061,12 +6061,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:dge-ba-dpal</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6076,27 +6076,27 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Vidyākarasiṃha</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>translatorTib</t>
+          <t>reviser</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:vidyakarasimha</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6106,12 +6106,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Devacandra</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:devacandra</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6136,12 +6136,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>165</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6151,12 +6151,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6166,12 +6166,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>165</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6181,12 +6181,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6196,12 +6196,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6286,12 +6286,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6316,12 +6316,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6331,12 +6331,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6346,12 +6346,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -6376,12 +6376,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6391,12 +6391,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6406,12 +6406,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6421,12 +6421,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6436,12 +6436,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>kamalagupta</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>eft:kamalagupta</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -6466,12 +6466,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>rin chen bzang po</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>eft:rin-chen-bzang-po</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -6496,12 +6496,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>171</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Dharmatāśila</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>eft:dharmatasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -6526,12 +6526,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>171</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Chönyi Tsultrim</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6541,12 +6541,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>eft:ch-nyi-tsultrim</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6556,12 +6556,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>171</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6571,12 +6571,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6586,12 +6586,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>173</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>kamalagupta</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6601,12 +6601,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:kamalagupta</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6616,12 +6616,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>173</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>rin chen bzang po</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6631,12 +6631,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:rin-chen-bzang-po</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6646,12 +6646,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>175</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>jnanasidhi</t>
+          <t>Dharmatāśila</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>eft:jnanasidhi</t>
+          <t>eft:dharmatasila</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -6676,12 +6676,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>176</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Chönyi Tsultrim</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:ch-nyi-tsultrim</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -6706,12 +6706,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>177</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>surendrabodhi</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -6736,12 +6736,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>177</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6766,12 +6766,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>178</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Dharmatāśīla</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>eft:dharmatasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -6796,12 +6796,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>178</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>rin chen 'tsho</t>
+          <t>jnanasidhi</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6811,12 +6811,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>eft:rin-chen-tsho</t>
+          <t>eft:jnanasidhi</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6826,12 +6826,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>178</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6841,12 +6841,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6856,12 +6856,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>179</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6871,12 +6871,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>179</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -6916,12 +6916,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>179</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Dharmatāśīla</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:dharmatasila</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -6946,12 +6946,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>180</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>rin chen 'tsho</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:rin-chen-tsho</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -6976,12 +6976,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>182</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Jñānagarbha</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>eft:jnanagarbha</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>182</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7036,12 +7036,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>184</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -7066,12 +7066,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>184</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7081,12 +7081,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7096,12 +7096,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>184</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7111,12 +7111,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7126,12 +7126,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>185</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Jñānagarbha</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7141,12 +7141,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:jnanagarbha</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7156,12 +7156,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>185</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7171,12 +7171,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7186,12 +7186,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>196</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>196</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7246,12 +7246,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Sarvajñādeva</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7261,12 +7261,12 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>eft:sarvajnadeva</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7276,12 +7276,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Paltsek</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7291,12 +7291,12 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>eft:paltsek</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7306,12 +7306,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Rinchen Tso</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7321,12 +7321,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>eft:rinchen-tso</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Chönyi Tsultrim</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7351,12 +7351,12 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>eft:ch-nyi-tsultrim</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7366,12 +7366,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>212</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Mañjuśrīgarbha</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>eft:manjusrigarbha</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -7396,12 +7396,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>212</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Vijayaśīla</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7411,12 +7411,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>eft:vijayasila</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7426,12 +7426,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -7456,12 +7456,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7471,12 +7471,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7486,12 +7486,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>hwa shang zab mo</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>eft:hwa-shang-zab-mo</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -7516,12 +7516,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>rnam par mi rtog pa</t>
+          <t>Sarvajñādeva</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -7531,12 +7531,12 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>eft:rnam-par-mi-rtog-pa</t>
+          <t>eft:sarvajnadeva</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7546,12 +7546,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>danasila</t>
+          <t>Paltsek</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7561,12 +7561,12 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:paltsek</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>munivarma</t>
+          <t>Rinchen Tso</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7591,12 +7591,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>eft:munivarma</t>
+          <t>eft:rinchen-tso</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7606,12 +7606,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Chönyi Tsultrim</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:ch-nyi-tsultrim</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -7636,12 +7636,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>siladharma</t>
+          <t>Mañjuśrīgarbha</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>eft:siladharma</t>
+          <t>eft:manjusrigarbha</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -7666,12 +7666,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>rnam par mi rtog pa</t>
+          <t>Vijayaśīla</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -7681,12 +7681,12 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>eft:rnam-par-mi-rtog-pa</t>
+          <t>eft:vijayasila</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7696,12 +7696,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -7726,12 +7726,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -7756,12 +7756,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>hwa shang zab mo</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7771,12 +7771,12 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:hwa-shang-zab-mo</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7786,12 +7786,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>rnam par mi rtog pa</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:rnam-par-mi-rtog-pa</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>danasila</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -7846,12 +7846,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Danaśila</t>
+          <t>munivarma</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:munivarma</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -7876,12 +7876,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -7906,12 +7906,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>siladharma</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:siladharma</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -7936,12 +7936,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>rnam par mi rtog pa</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:rnam-par-mi-rtog-pa</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -7966,12 +7966,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -7996,12 +7996,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Ratnarakṣita</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -8011,12 +8011,12 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>eft:ratnaraksita</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8026,12 +8026,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Thönmi Sambhoṭa</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -8041,12 +8041,12 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>eft:th-nmi-sambhota</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8056,12 +8056,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -8071,12 +8071,12 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8086,12 +8086,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -8116,12 +8116,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Danaśila</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -8131,12 +8131,12 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8146,12 +8146,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8161,12 +8161,12 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8176,12 +8176,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -8206,12 +8206,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -8266,12 +8266,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Ratnarakṣita</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:ratnaraksita</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -8296,12 +8296,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>267</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Thönmi Sambhoṭa</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:th-nmi-sambhota</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -8326,12 +8326,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>273</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Tsultrim Gyaltsen</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -8341,12 +8341,12 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>eft:tsultrim-gyaltsen</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8356,12 +8356,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>273</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Shang Buchikpa</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -8371,12 +8371,12 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>eft:shang-buchikpa</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8386,12 +8386,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>273</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Sherap Ö</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>eft:sherap-</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -8416,12 +8416,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>511</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Paṇḍita Dharmākara</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>eft:pandita-dharmakara</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -8446,12 +8446,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>511</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Lotsāwa Zangkyong (bzang skyong)</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -8461,12 +8461,12 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>eft:lotsawa-zangkyong-bzang-skyong-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8476,12 +8476,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>511</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -8491,12 +8491,12 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8506,12 +8506,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>853</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Zhang Yeshé Dé</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -8521,12 +8521,12 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>eft:zhang-yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8536,12 +8536,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>853</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -8566,12 +8566,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>853</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -8596,12 +8596,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>276</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -8626,12 +8626,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>276</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -8641,12 +8641,12 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8656,12 +8656,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>276</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -8671,12 +8671,12 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8686,12 +8686,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>287</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Tsultrim Gyaltsen</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:tsultrim-gyaltsen</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -8716,12 +8716,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>287</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Shang Buchikpa</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -8731,12 +8731,12 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:shang-buchikpa</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8746,12 +8746,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>287</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Devacandra</t>
+          <t>Sherap Ö</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -8761,12 +8761,12 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>eft:devacandra</t>
+          <t>eft:sherap-</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8776,12 +8776,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Dharmaśrībhadra</t>
+          <t>Paṇḍita Dharmākara</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>eft:dharmasribhadra</t>
+          <t>eft:pandita-dharmakara</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -8806,12 +8806,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Sherab Lekpa</t>
+          <t>Lotsāwa Zangkyong (bzang skyong)</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>eft:sherab-lekpa</t>
+          <t>eft:lotsawa-zangkyong-bzang-skyong-</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -8836,12 +8836,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>307</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Rinchen Zangpo</t>
+          <t>Viśuddhasiṃha</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8851,12 +8851,12 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>eft:rinchen-zangpo</t>
+          <t>eft:visuddhasimha</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8866,12 +8866,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>307</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Gayādhara</t>
+          <t>Gewé Pal</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8881,14 +8881,10 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>eft:gayadhara</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
+          <t>eft:gew-pal</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -8896,12 +8892,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>307</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Śākya Yeshé</t>
+          <t>Bandé Paltsek</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8911,14 +8907,10 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>eft:sakya-yesh-</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>bo</t>
-        </is>
-      </c>
+          <t>eft:band-paltsek</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -8926,12 +8918,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>307</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Jinavara</t>
+          <t>Vidyākarasiṃha</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8941,7 +8933,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>eft:jinavara</t>
+          <t>eft:vidyakarasimha</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -8956,12 +8948,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>309</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Gö Lhetsé</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8971,12 +8963,12 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>eft:g-lhets-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8986,12 +8978,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>309</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Trakpa Gyaltsen</t>
+          <t>Zhang Yeshé Dé</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -9001,7 +8993,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>eft:trakpa-gyaltsen</t>
+          <t>eft:zhang-yesh-d-</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -9016,12 +9008,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>312</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Kṛṣnapaṇḍita</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9031,7 +9023,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>eft:krsnapandita</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -9046,12 +9038,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>312</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>tshul khrims rgyal ba</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -9061,7 +9053,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>eft:tshul-khrims-rgyal-ba</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -9076,12 +9068,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>628</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Nyen Lotsawa Darma Drak</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -9091,12 +9083,12 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>eft:nyen-lotsawa-darma-drak</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9106,12 +9098,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>628</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Celu</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -9121,12 +9113,12 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>eft:celu</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9136,12 +9128,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Phakpa Sherab</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -9151,12 +9143,12 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>eft:phakpa-sherab</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9166,12 +9158,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -9181,12 +9173,12 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9196,12 +9188,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>347</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -9211,7 +9203,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -9226,12 +9218,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>347</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Devacandra</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -9241,7 +9233,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:devacandra</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -9256,12 +9248,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>349</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Dharmaśrībhadra</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -9271,12 +9263,12 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:dharmasribhadra</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9286,12 +9278,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>349</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Sherab Lekpa</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -9301,12 +9293,12 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:sherab-lekpa</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9316,12 +9308,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>349</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Rinchen Zangpo</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -9331,12 +9323,12 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:rinchen-zangpo</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9346,12 +9338,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>384</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Gayādhara</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -9361,12 +9353,12 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:gayadhara</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9376,12 +9368,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>384</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Śākya Yeshé</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -9391,12 +9383,12 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:sakya-yesh-</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9406,12 +9398,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>425</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinavara</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -9421,7 +9413,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinavara</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -9436,12 +9428,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>425</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Gö Lhetsé</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -9451,7 +9443,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:g-lhets-</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -9466,12 +9458,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>431</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Trakpa Gyaltsen</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -9481,12 +9473,12 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:trakpa-gyaltsen</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9496,12 +9488,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>437</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Kṛṣnapaṇḍita</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -9511,7 +9503,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:krsnapandita</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -9526,12 +9518,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>437</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>tshul khrims rgyal ba</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -9541,7 +9533,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:tshul-khrims-rgyal-ba</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -9556,12 +9548,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>438</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Nyen Lotsawa Darma Drak</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -9571,12 +9563,12 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:nyen-lotsawa-darma-drak</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9586,12 +9578,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>498</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Celu</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -9601,7 +9593,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:celu</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -9616,12 +9608,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>498</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Phakpa Sherab</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -9631,7 +9623,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:phakpa-sherab</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -9646,7 +9638,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>503</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -9676,7 +9668,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>503</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -9706,12 +9698,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>503</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -9721,12 +9713,12 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9736,12 +9728,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>503</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -9751,12 +9743,12 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9766,12 +9758,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>504</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -9781,7 +9773,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -9796,12 +9788,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>504</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -9811,12 +9803,12 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9826,12 +9818,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>504</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Kumārakalaśa</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -9841,12 +9833,12 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>eft:kumarakalasa</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9856,12 +9848,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>513</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Śākya Lodrö</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -9871,12 +9863,12 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>eft:sakya-lodr-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9886,12 +9878,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>513</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Dīpaṃkara Śrījñāna</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -9901,7 +9893,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>eft:dipamkara-srijnana</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -9916,12 +9908,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>513</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Géwai Lodrö</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -9931,7 +9923,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>eft:g-wai-lodr-</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -9946,12 +9938,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Tsultrim Gyalwa</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -9961,12 +9953,12 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>eft:tsultrim-gyalwa</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9976,12 +9968,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -9991,12 +9983,12 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10006,12 +9998,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -10021,12 +10013,12 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10036,12 +10028,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>854</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Jñānasiddhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -10051,7 +10043,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>eft:jnanasiddhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -10066,12 +10058,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>854</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -10081,7 +10073,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -10096,12 +10088,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>854</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -10111,12 +10103,12 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10126,12 +10118,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>515</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Jñānasiddhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -10141,7 +10133,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>eft:jnanasiddhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -10156,12 +10148,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>515</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -10171,7 +10163,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -10186,7 +10178,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>515</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -10216,12 +10208,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>855</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -10246,12 +10238,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>855</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>danasila</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -10276,12 +10268,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>855</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -10291,7 +10283,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -10306,12 +10298,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>543</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>punyasambhava</t>
+          <t>Kumārakalaśa</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -10321,7 +10313,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>eft:punyasambhava</t>
+          <t>eft:kumarakalasa</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -10336,12 +10328,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>543</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>pa tshab nyi ma grags</t>
+          <t>Śākya Lodrö</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -10351,7 +10343,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>eft:pa-tshab-nyi-ma-grags</t>
+          <t>eft:sakya-lodr-</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -10366,12 +10358,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>544</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dīpaṃkara Śrījñāna</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -10381,7 +10373,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:dipamkara-srijnana</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -10396,12 +10388,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>544</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Géwai Lodrö</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -10411,12 +10403,12 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:g-wai-lodr-</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10426,12 +10418,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>544</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Bandé Yeshé De</t>
+          <t>Tsultrim Gyalwa</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -10441,7 +10433,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>eft:band-yesh-de</t>
+          <t>eft:tsultrim-gyalwa</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -10456,12 +10448,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>558</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -10471,12 +10463,12 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10486,12 +10478,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>558</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -10501,7 +10493,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -10516,12 +10508,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>558</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Bandé Yeshé De</t>
+          <t>Jñānasiddhi</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -10531,12 +10523,12 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>eft:band-yesh-de</t>
+          <t>eft:jnanasiddhi</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10546,12 +10538,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>558</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Buddhākaravarma</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -10561,7 +10553,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>eft:buddhakaravarma</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -10576,12 +10568,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>563</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Chökyi Sherab</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -10591,12 +10583,12 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>eft:ch-kyi-sherab</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10606,12 +10598,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>563</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>vajrvisramitra</t>
+          <t>Jñānasiddhi</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -10621,7 +10613,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>eft:vajrvisramitra</t>
+          <t>eft:jnanasiddhi</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -10636,25 +10628,557 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Śākyaprabha</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>eft:sakyaprabha</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>jinamitra</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>eft:jinamitra</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>danasila</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>eft:danasila</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>ye shes sde</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>eft:ye-shes-sde</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Patsap Nyima Drak [?]</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>eft:patsap-nyima-drak-</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Patsap Nyima Drak [?]</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>eft:patsap-nyima-drak-</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>punyasambhava</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>eft:punyasambhava</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>pa tshab nyi ma grags</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>eft:pa-tshab-nyi-ma-grags</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Jinamitra</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>eft:jinamitra</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Dānaśīla</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>eft:danasila</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé De</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-de</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Jinamitra</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>eft:jinamitra</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Dānaśīla</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>eft:danasila</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé De</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-de</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Buddhākaravarma</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>eft:buddhakaravarma</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Chökyi Sherab</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>eft:ch-kyi-sherab</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
           <t>830</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>vajrvisramitra</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>eft:vajrvisramitra</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
         <is>
           <t>vairocanaraksita</t>
         </is>
       </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>translatorTib</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr">
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
         <is>
           <t>eft:vairocanaraksita</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F359" t="inlineStr">
         <is>
           <t>sa</t>
         </is>

--- a/existing_attributions.xlsx
+++ b/existing_attributions.xlsx
@@ -8884,7 +8884,11 @@
           <t>eft:gew-pal</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr"/>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -8910,7 +8914,11 @@
           <t>eft:band-paltsek</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr"/>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10796,7 +10804,11 @@
           <t>eft:patsap-nyima-drak-</t>
         </is>
       </c>
-      <c r="F346" t="inlineStr"/>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -10822,7 +10834,11 @@
           <t>eft:patsap-nyima-drak-</t>
         </is>
       </c>
-      <c r="F347" t="inlineStr"/>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">

--- a/existing_attributions.xlsx
+++ b/existing_attributions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F359"/>
+  <dimension ref="A1:F354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>bidyakaraprabha</t>
+          <t>vidyakaraprabha</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>eft:bidyakaraprabha</t>
+          <t>eft:vidyakaraprabha</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>rin chen bzag po</t>
+          <t>'brom rgyal ba'i 'byung gnas</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>eft:rin-chen-bzag-po</t>
+          <t>eft:-brom-rgyal-ba-i-byung-gnas</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>dipamkarasrijnana</t>
+          <t>'brom</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1531,12 +1531,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>eft:dipamkarasrijnana</t>
+          <t>eft:-brom-rgyal-ba-i-byung-gnas</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1551,17 +1551,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>'brom rgyal ba'i 'byung gnas</t>
+          <t>blo ldan shes rab</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>translatorTib</t>
+          <t>reviser</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>eft:-brom-rgyal-ba-i-byung-gnas</t>
+          <t>eft:blo-ldan-shes-rab</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1576,27 +1576,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>'brom</t>
+          <t>sakyasena</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>reviser</t>
+          <t>translatorTib</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>eft:-brom</t>
+          <t>eft:sakyasena</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1606,27 +1606,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>blo ldan shes rab</t>
+          <t>jnanasiddhi</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>reviser</t>
+          <t>translatorTib</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>eft:blo-ldan-shes-rab</t>
+          <t>eft:jnanasiddhi</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>sakyasena</t>
+          <t>dharmatasila</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>eft:sakyasena</t>
+          <t>eft:dharmatasila</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>jnanasiddhi</t>
+          <t>subhasita</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>translatorTib</t>
+          <t>reviser</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>eft:jnanasiddhi</t>
+          <t>eft:subhasita</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>dharmatasila</t>
+          <t>rin chen bzang po</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1711,12 +1711,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>eft:dharmatasila</t>
+          <t>eft:rin-chen-bzang-po</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>subhasita</t>
+          <t>dipamkarasrijnana</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>eft:subhasita</t>
+          <t>eft:dipamkarasrijnana</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>rin chen bzang po</t>
+          <t>'brom rgyal ba'i 'byung gnas</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>eft:rin-chen-bzang-po</t>
+          <t>eft:-brom-rgyal-ba-i-byung-gnas</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>dipamkarasrijnana</t>
+          <t>'brom</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>eft:dipamkarasrijnana</t>
+          <t>eft:-brom-rgyal-ba-i-byung-gnas</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1821,17 +1821,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>rin chen bzag po</t>
+          <t>blo ldan shes rab</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>translatorTib</t>
+          <t>reviser</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>eft:rin-chen-bzag-po</t>
+          <t>eft:blo-ldan-shes-rab</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1846,22 +1846,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>dipamkarasrijnana</t>
+          <t>anandasri (s)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>reviser</t>
+          <t>translatorTib</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>eft:dipamkarasrijnana</t>
+          <t>eft:anandasri-s-</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1876,12 +1876,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>'brom rgyal ba'i 'byung gnas</t>
+          <t>anandasri (s)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>eft:-brom-rgyal-ba-i-byung-gnas</t>
+          <t>eft:anandasri-s-</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1906,22 +1906,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>'brom</t>
+          <t>Kawa Paltsek (under the name Paltsek Rakṣita)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>reviser</t>
+          <t>translatorTib</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>eft:-brom</t>
+          <t>eft:kawa-paltsek-under-the-name-paltsek-raksita-</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1936,27 +1936,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>blo ldan shes rab</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>reviser</t>
+          <t>translatorTib</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>eft:blo-ldan-shes-rab</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1966,12 +1966,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>anandasri (s)</t>
+          <t>Gö Chödrup</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>eft:anandasri-s-</t>
+          <t>eft:g-ch-drup</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -1996,12 +1996,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>anandasri (s)</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>eft:anandasri-s-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2026,12 +2026,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Kawa Paltsek (under the name Paltsek Rakṣita)</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2041,12 +2041,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>eft:kawa-paltsek-under-the-name-paltsek-raksita-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2071,12 +2071,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Gö Chödrup</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>eft:g-ch-drup</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2146,12 +2146,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2266,12 +2266,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Munivarman</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2281,12 +2281,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:munivarman</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2356,12 +2356,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Munivarman</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>eft:munivarman</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2416,12 +2416,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2431,12 +2431,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2446,12 +2446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2476,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2506,12 +2506,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2551,12 +2551,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Gö Chödrup</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2671,12 +2671,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:g-ch-drup</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2701,12 +2701,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2716,12 +2716,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2746,12 +2746,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Gö Chödrup</t>
+          <t>Danaśila</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>eft:g-ch-drup</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -2836,12 +2836,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2866,12 +2866,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>t. Vidyākarasiṃha</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:t-vidyakarasimha</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2896,12 +2896,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>dpal dbyangs</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:dpal-dbyangs</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2926,27 +2926,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>ska ba dpal brtsegs</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>translatorTib</t>
+          <t>reviser</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:ska-ba-dpal-brtsegs</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -2956,12 +2956,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Danaśila</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>t. Vidyākarasiṃha</t>
+          <t>Munivarman</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>eft:t-vidyakarasimha</t>
+          <t>eft:munivarman</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3046,12 +3046,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>dpal dbyangs</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>eft:dpal-dbyangs</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3076,27 +3076,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ska ba dpal brtsegs</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>reviser</t>
+          <t>translatorTib</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>eft:ska-ba-dpal-brtsegs</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3106,12 +3106,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3136,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Munivarman</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>eft:munivarman</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3226,12 +3226,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Yeshé Nyingpo</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:yesh-nyingpo</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3316,12 +3316,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3331,12 +3331,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3346,12 +3346,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Leki Dé</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:leki-d-</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3406,12 +3406,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Yeshé Nyingpo</t>
+          <t>Jñānagarbha</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>eft:yesh-nyingpo</t>
+          <t>eft:jnanagarbha</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3436,12 +3436,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3481,12 +3481,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Leki Dé</t>
+          <t>Yeshé De</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>eft:leki-d-</t>
+          <t>eft:yesh-de</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>527</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3541,12 +3541,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3556,12 +3556,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>527</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Jñānagarbha</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>eft:jnanagarbha</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3586,12 +3586,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>527</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3601,12 +3601,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3616,12 +3616,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3646,12 +3646,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Yeshé De</t>
+          <t>Yeshé Dé (ye shes sde)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>eft:yesh-de</t>
+          <t>eft:yesh-d-ye-shes-sde-</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3676,12 +3676,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3691,12 +3691,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>wang phab zhwun (wang phan zhun)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:wang-phab-zhwun-wang-phan-zhun-</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3796,12 +3796,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Yeshé Dé (ye shes sde)</t>
+          <t>dge ba'i blo gros</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>eft:yesh-d-ye-shes-sde-</t>
+          <t>eft:dge-ba-i-blo-gros</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3826,12 +3826,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>rgya mtsho'i sde</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3841,12 +3841,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:rgya-mtsho-i-sde</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3856,12 +3856,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -3886,12 +3886,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3901,12 +3901,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3916,12 +3916,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>wang phab zhwun (wang phan zhun)</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>eft:wang-phab-zhwun-wang-phan-zhun-</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3946,12 +3946,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>dge ba'i blo gros</t>
+          <t>Śrīlendrabodhi</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3961,12 +3961,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>eft:dge-ba-i-blo-gros</t>
+          <t>eft:srilendrabodhi</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3976,12 +3976,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>rgya mtsho'i sde</t>
+          <t>Lotsawa Bandé Dharmatāśīla</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>eft:rgya-mtsho-i-sde</t>
+          <t>eft:lotsawa-band-dharmatasila</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4036,12 +4036,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4096,12 +4096,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Śrīlendrabodhi</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>eft:srilendrabodhi</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4126,12 +4126,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Lotsawa Bandé Dharmatāśīla</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>eft:lotsawa-band-dharmatasila</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4186,12 +4186,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Munivarman</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:munivarman</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4216,12 +4216,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4231,12 +4231,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4276,12 +4276,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Prajñāvarma</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4291,12 +4291,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:prajnavarma</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4306,12 +4306,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4336,12 +4336,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Munivarman</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4351,12 +4351,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>eft:munivarman</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Śilendrabodhi</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4426,12 +4426,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Prajñāvarma</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4441,12 +4441,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>eft:prajnavarma</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4456,12 +4456,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4486,12 +4486,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4501,12 +4501,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4516,12 +4516,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Śilendrabodhi</t>
+          <t>Surendra­bodhi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>847</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Surendra­bodhi</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4591,12 +4591,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>847</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4636,12 +4636,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4666,12 +4666,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Surendra­bodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Dīpaṃkaraśrījñāna</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4711,12 +4711,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:dipamkarasrijnana</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4726,12 +4726,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Surendra­bodhi</t>
+          <t>Gewai Lodrö</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4741,12 +4741,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:gewai-lodr-</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4786,12 +4786,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4801,12 +4801,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4816,12 +4816,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4846,12 +4846,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Dīpaṃkaraśrījñāna</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>eft:dipamkarasrijnana</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -4876,12 +4876,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Gewai Lodrö</t>
+          <t>Buddhaprabha</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4891,12 +4891,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>eft:gewai-lodr-</t>
+          <t>eft:buddhaprabha</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4906,12 +4906,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4921,12 +4921,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4951,12 +4951,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -4966,12 +4966,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>prajnavarma</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:prajnavarma</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -4996,12 +4996,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5026,12 +5026,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Buddhaprabha</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>eft:buddhaprabha</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5056,12 +5056,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Danasila</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5086,12 +5086,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>Munivarman</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:munivarman</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5116,12 +5116,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>prajnavarma</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5131,12 +5131,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>eft:prajnavarma</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5146,12 +5146,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5161,12 +5161,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5191,12 +5191,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5206,12 +5206,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Danasila</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5236,12 +5236,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Munivarman</t>
+          <t>danasila</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>eft:munivarman</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>dgon gling rma</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5311,12 +5311,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:dgon-gling-rma</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5326,12 +5326,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>157</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>dpal gyi lhun po</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:dpal-gyi-lhun-po</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5356,12 +5356,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>157</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>dpal brtsegs</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5371,12 +5371,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:dpal-brtsegs</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5386,12 +5386,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>158</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>danasila</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>158</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5446,12 +5446,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>dgon gling rma</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>eft:dgon-gling-rma</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5476,12 +5476,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>dpal gyi lhun po</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>eft:dpal-gyi-lhun-po</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5506,12 +5506,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>dpal brtsegs</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>eft:dpal-brtsegs</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5536,12 +5536,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5566,12 +5566,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Dharmapāla</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5581,12 +5581,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:dharmapala</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5596,12 +5596,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5611,7 +5611,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Dharmatāśīla</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:dharmatasila</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Devendrarakṣita</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:devendraraksita</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>Kumārarakṣita</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:kumararaksita</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -5716,12 +5716,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Dharmapāla</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>eft:dharmapala</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -5746,12 +5746,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5761,12 +5761,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>163</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Dharmatāśīla</t>
+          <t>t. Jñānagarbha</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>eft:dharmatasila</t>
+          <t>eft:t-jnanagarbha</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -5806,12 +5806,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>163</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Devendrarakṣita</t>
+          <t>ye shes snying po</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>eft:devendraraksita</t>
+          <t>eft:ye-shes-snying-po</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5836,27 +5836,27 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>163</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Kumārarakṣita</t>
+          <t>dpal brtsegs</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>translatorTib</t>
+          <t>reviser</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>eft:kumararaksita</t>
+          <t>eft:dpal-brtsegs</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5866,12 +5866,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Viśuddhasiṃha</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:visuddhasimha</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -5896,12 +5896,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>dge ba dpal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:dge-ba-dpal</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -5926,22 +5926,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>t. Jñānagarbha</t>
+          <t>Vidyākarasiṃha</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>translatorTib</t>
+          <t>reviser</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>eft:t-jnanagarbha</t>
+          <t>eft:vidyakarasimha</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ye shes snying po</t>
+          <t>Devacandra</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5971,12 +5971,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>eft:ye-shes-snying-po</t>
+          <t>eft:devacandra</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5986,27 +5986,27 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>165</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>dpal brtsegs</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>reviser</t>
+          <t>translatorTib</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>eft:dpal-brtsegs</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6016,12 +6016,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>165</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Viśuddhasiṃha</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6031,12 +6031,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>eft:visuddhasimha</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6046,12 +6046,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>dge ba dpal</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6061,12 +6061,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>eft:dge-ba-dpal</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6076,27 +6076,27 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Vidyākarasiṃha</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>reviser</t>
+          <t>translatorTib</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>eft:vidyakarasimha</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6106,12 +6106,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Devacandra</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>eft:devacandra</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6136,12 +6136,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6151,12 +6151,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6166,12 +6166,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6181,12 +6181,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6196,12 +6196,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6286,12 +6286,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6316,12 +6316,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6331,12 +6331,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6346,12 +6346,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>171</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -6376,12 +6376,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>171</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6391,12 +6391,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6406,12 +6406,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>171</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6421,12 +6421,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6436,12 +6436,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>173</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>kamalagupta</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:kamalagupta</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -6466,12 +6466,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>173</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>rin chen bzang po</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:rin-chen-bzang-po</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -6496,12 +6496,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>175</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dharmatāśila</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:dharmatasila</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -6526,12 +6526,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>176</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Chönyi Tsultrim</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6541,12 +6541,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:ch-nyi-tsultrim</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6556,12 +6556,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>177</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>surendrabodhi</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6571,12 +6571,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6586,12 +6586,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>177</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>kamalagupta</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6601,12 +6601,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>eft:kamalagupta</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6616,12 +6616,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>178</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>rin chen bzang po</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6631,12 +6631,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>eft:rin-chen-bzang-po</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6646,12 +6646,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>178</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Dharmatāśila</t>
+          <t>jnanasidhi</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>eft:dharmatasila</t>
+          <t>eft:jnanasidhi</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -6676,12 +6676,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>178</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Chönyi Tsultrim</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>eft:ch-nyi-tsultrim</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -6706,12 +6706,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>179</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>surendrabodhi</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -6736,12 +6736,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>179</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6766,12 +6766,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>179</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>Dharmatāśīla</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:dharmatasila</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -6796,12 +6796,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>180</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>jnanasidhi</t>
+          <t>rin chen 'tsho</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6811,12 +6811,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>eft:jnanasidhi</t>
+          <t>eft:rin-chen-tsho</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6826,12 +6826,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>182</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6841,12 +6841,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -6856,12 +6856,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>182</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6871,12 +6871,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>184</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -6916,12 +6916,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>184</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Dharmatāśīla</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>eft:dharmatasila</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -6946,12 +6946,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>184</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>rin chen 'tsho</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>eft:rin-chen-tsho</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -6976,12 +6976,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>185</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Jñānagarbha</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:jnanagarbha</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>185</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7036,12 +7036,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>196</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -7066,12 +7066,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>196</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7081,12 +7081,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7126,12 +7126,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Jñānagarbha</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>eft:jnanagarbha</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -7156,12 +7156,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7171,12 +7171,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -7216,12 +7216,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>212</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7231,12 +7231,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7246,12 +7246,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>212</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -7276,12 +7276,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -7306,12 +7306,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7351,12 +7351,12 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7366,12 +7366,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Sarvajñādeva</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:sarvajnadeva</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -7396,12 +7396,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Paltsek</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:paltsek</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -7426,12 +7426,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Rinchen Tso</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7441,12 +7441,12 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:rinchen-tso</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7456,12 +7456,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Chönyi Tsultrim</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7471,12 +7471,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:ch-nyi-tsultrim</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7486,12 +7486,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Mañjuśrīgarbha</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7501,12 +7501,12 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:manjusrigarbha</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7516,12 +7516,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Sarvajñādeva</t>
+          <t>Vijayaśīla</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>eft:sarvajnadeva</t>
+          <t>eft:vijayasila</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -7546,12 +7546,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Paltsek</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7561,12 +7561,12 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>eft:paltsek</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Rinchen Tso</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>eft:rinchen-tso</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -7606,12 +7606,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Chönyi Tsultrim</t>
+          <t>hwa shang zab mo</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>eft:ch-nyi-tsultrim</t>
+          <t>eft:hwa-shang-zab-mo</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -7636,12 +7636,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Mañjuśrīgarbha</t>
+          <t>rnam par mi rtog pa</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7651,12 +7651,12 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>eft:manjusrigarbha</t>
+          <t>eft:rnam-par-mi-rtog-pa</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7666,12 +7666,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Vijayaśīla</t>
+          <t>danasila</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>eft:vijayasila</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -7696,12 +7696,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>munivarma</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:munivarma</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -7756,12 +7756,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>hwa shang zab mo</t>
+          <t>siladharma</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7771,12 +7771,12 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>eft:hwa-shang-zab-mo</t>
+          <t>eft:siladharma</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>danasila</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -7846,12 +7846,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>munivarma</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7861,12 +7861,12 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>eft:munivarma</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7876,12 +7876,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7891,12 +7891,12 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7906,12 +7906,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>siladharma</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7921,12 +7921,12 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>eft:siladharma</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7936,12 +7936,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>rnam par mi rtog pa</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7951,12 +7951,12 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>eft:rnam-par-mi-rtog-pa</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7966,12 +7966,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Danaśila</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8026,12 +8026,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -8086,12 +8086,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -8116,12 +8116,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Danaśila</t>
+          <t>Ratnarakṣita</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:ratnaraksita</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -8146,12 +8146,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>267</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Thönmi Sambhoṭa</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:th-nmi-sambhota</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -8176,12 +8176,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>273</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -8206,12 +8206,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>273</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -8221,12 +8221,12 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8236,12 +8236,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>273</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -8251,12 +8251,12 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8266,12 +8266,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>511</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Ratnarakṣita</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>eft:ratnaraksita</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -8296,12 +8296,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>511</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Thönmi Sambhoṭa</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -8311,12 +8311,12 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>eft:th-nmi-sambhota</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8326,12 +8326,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>511</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -8341,12 +8341,12 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8356,12 +8356,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>853</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -8386,12 +8386,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>853</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -8401,12 +8401,12 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8416,12 +8416,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>853</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -8431,12 +8431,12 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8446,12 +8446,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>276</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -8476,12 +8476,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>276</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -8491,12 +8491,12 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8506,12 +8506,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>276</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -8521,12 +8521,12 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8536,12 +8536,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>287</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Tsultrim Gyaltsen</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -8551,12 +8551,12 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:tsultrim-gyaltsen</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8566,12 +8566,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>287</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Shang Buchikpa</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:shang-buchikpa</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -8596,12 +8596,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>287</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Sherap Ö</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -8611,12 +8611,12 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:sherap-</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8626,12 +8626,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Paṇḍita Dharmākara</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:pandita-dharmakara</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -8656,12 +8656,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Lotsāwa Zangkyong (bzang skyong)</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:lotsawa-zangkyong-bzang-skyong-</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -8686,12 +8686,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>307</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Tsultrim Gyaltsen</t>
+          <t>Viśuddhasiṃha</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -8701,12 +8701,12 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>eft:tsultrim-gyaltsen</t>
+          <t>eft:visuddhasimha</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8716,12 +8716,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>307</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Shang Buchikpa</t>
+          <t>Gewé Pal</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>eft:shang-buchikpa</t>
+          <t>eft:gew-pal</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -8746,12 +8746,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>307</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Sherap Ö</t>
+          <t>Bandé Paltsek</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>eft:sherap-</t>
+          <t>eft:band-paltsek</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -8776,12 +8776,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>307</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Paṇḍita Dharmākara</t>
+          <t>Vidyākarasiṃha</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>eft:pandita-dharmakara</t>
+          <t>eft:vidyakarasimha</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -8806,12 +8806,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>309</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Lotsāwa Zangkyong (bzang skyong)</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -8821,12 +8821,12 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>eft:lotsawa-zangkyong-bzang-skyong-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8836,12 +8836,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>309</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Viśuddhasiṃha</t>
+          <t>Zhang Yeshé Dé</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8851,12 +8851,12 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>eft:visuddhasimha</t>
+          <t>eft:zhang-yesh-d-</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8866,12 +8866,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>312</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Gewé Pal</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8881,12 +8881,12 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>eft:gew-pal</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8896,12 +8896,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>312</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Bandé Paltsek</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>eft:band-paltsek</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -8926,12 +8926,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>628</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Vidyākarasiṃha</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>eft:vidyakarasimha</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -8956,12 +8956,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>628</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8971,12 +8971,12 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8986,12 +8986,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Zhang Yeshé Dé</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -9001,12 +9001,12 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>eft:zhang-yesh-d-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9016,12 +9016,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9031,12 +9031,12 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9046,12 +9046,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>347</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -9061,12 +9061,12 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9076,12 +9076,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>347</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Devacandra</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:devacandra</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -9106,12 +9106,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>349</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Dharmaśrībhadra</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -9121,12 +9121,12 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:dharmasribhadra</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9136,12 +9136,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>349</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Sherab Lekpa</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -9151,12 +9151,12 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:sherab-lekpa</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9166,12 +9166,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>349</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Rinchen Zangpo</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:rinchen-zangpo</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -9196,12 +9196,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>384</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Gayādhara</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:gayadhara</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -9226,12 +9226,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>384</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Devacandra</t>
+          <t>Śākya Yeshé</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -9241,12 +9241,12 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>eft:devacandra</t>
+          <t>eft:sakya-yesh-</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9256,12 +9256,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>425</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Dharmaśrībhadra</t>
+          <t>Jinavara</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>eft:dharmasribhadra</t>
+          <t>eft:jinavara</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -9286,12 +9286,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>425</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Sherab Lekpa</t>
+          <t>Gö Lhetsé</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>eft:sherab-lekpa</t>
+          <t>eft:g-lhets-</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -9316,12 +9316,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>431</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Rinchen Zangpo</t>
+          <t>Trakpa Gyaltsen</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -9331,7 +9331,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>eft:rinchen-zangpo</t>
+          <t>eft:trakpa-gyaltsen</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -9346,12 +9346,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>437</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Gayādhara</t>
+          <t>Kṛṣnapaṇḍita</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>eft:gayadhara</t>
+          <t>eft:krsnapandita</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -9376,12 +9376,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>437</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Śākya Yeshé</t>
+          <t>tshul khrims rgyal ba</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>eft:sakya-yesh-</t>
+          <t>eft:tshul-khrims-rgyal-ba</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>438</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Jinavara</t>
+          <t>Nyen Lotsawa Darma Drak</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -9421,12 +9421,12 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>eft:jinavara</t>
+          <t>eft:nyen-lotsawa-darma-drak</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9436,12 +9436,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>498</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Gö Lhetsé</t>
+          <t>Celu</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -9451,12 +9451,12 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>eft:g-lhets-</t>
+          <t>eft:celu</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9466,12 +9466,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>498</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Trakpa Gyaltsen</t>
+          <t>Phakpa Sherab</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>eft:trakpa-gyaltsen</t>
+          <t>eft:phakpa-sherab</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -9496,12 +9496,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>503</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Kṛṣnapaṇḍita</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>eft:krsnapandita</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -9526,12 +9526,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>503</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>tshul khrims rgyal ba</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -9541,12 +9541,12 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>eft:tshul-khrims-rgyal-ba</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9556,12 +9556,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>503</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Nyen Lotsawa Darma Drak</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -9571,12 +9571,12 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>eft:nyen-lotsawa-darma-drak</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9586,12 +9586,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>503</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Celu</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -9601,12 +9601,12 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>eft:celu</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9616,12 +9616,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>504</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Phakpa Sherab</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -9631,12 +9631,12 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>eft:phakpa-sherab</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9646,12 +9646,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>504</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -9676,12 +9676,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>504</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -9691,12 +9691,12 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9706,12 +9706,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>513</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -9736,12 +9736,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>513</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -9751,12 +9751,12 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9766,12 +9766,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>513</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -9781,12 +9781,12 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9796,12 +9796,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -9811,7 +9811,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -9826,12 +9826,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -9841,12 +9841,12 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9856,12 +9856,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -9871,12 +9871,12 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9886,12 +9886,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>854</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -9916,12 +9916,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>854</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -9931,12 +9931,12 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9946,12 +9946,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>854</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -9961,12 +9961,12 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9976,12 +9976,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>515</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -10006,12 +10006,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>515</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -10021,12 +10021,12 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10036,12 +10036,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>515</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -10051,12 +10051,12 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10066,12 +10066,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>855</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -10096,12 +10096,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>855</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -10111,12 +10111,12 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10126,12 +10126,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>855</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -10141,12 +10141,12 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10156,12 +10156,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>543</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Kumārakalaśa</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:kumarakalasa</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -10186,12 +10186,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>543</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Śākya Lodrö</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:sakya-lodr-</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>544</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dīpaṃkara Śrījñāna</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:dipamkara-srijnana</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -10246,12 +10246,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>544</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Géwai Lodrö</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -10261,12 +10261,12 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:g-wai-lodr-</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10276,12 +10276,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>544</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Tsultrim Gyalwa</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:tsultrim-gyalwa</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -10306,12 +10306,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>558</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Kumārakalaśa</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -10321,12 +10321,12 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>eft:kumarakalasa</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10336,12 +10336,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>558</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Śākya Lodrö</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -10351,12 +10351,12 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>eft:sakya-lodr-</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10366,12 +10366,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>558</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Dīpaṃkara Śrījñāna</t>
+          <t>Jñānasiddhi</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>eft:dipamkara-srijnana</t>
+          <t>eft:jnanasiddhi</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -10396,12 +10396,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>558</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Géwai Lodrö</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -10411,12 +10411,12 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>eft:g-wai-lodr-</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10426,12 +10426,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>563</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Tsultrim Gyalwa</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -10441,12 +10441,12 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>eft:tsultrim-gyalwa</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10456,12 +10456,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>563</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Jñānasiddhi</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -10471,12 +10471,12 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:jnanasiddhi</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10486,12 +10486,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>563</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>563</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Jñānasiddhi</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -10531,12 +10531,12 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>eft:jnanasiddhi</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10546,12 +10546,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>859</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -10576,12 +10576,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>859</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>danasila</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -10606,12 +10606,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>859</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Jñānasiddhi</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -10621,12 +10621,12 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>eft:jnanasiddhi</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10636,12 +10636,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>674</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>Patsap Nyima Drak [?]</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -10651,12 +10651,12 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:patsap-nyima-drak-</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10666,12 +10666,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>849</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Patsap Nyima Drak [?]</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:patsap-nyima-drak-</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -10696,12 +10696,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>850</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>punyasambhava</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:punyasambhava</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -10726,12 +10726,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>850</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>danasila</t>
+          <t>pa tshab nyi ma grags</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -10741,12 +10741,12 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:pa-tshab-nyi-ma-grags</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10756,12 +10756,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>725</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -10771,12 +10771,12 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10786,12 +10786,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>725</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Patsap Nyima Drak [?]</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -10801,12 +10801,12 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>eft:patsap-nyima-drak-</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10816,12 +10816,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>725</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Patsap Nyima Drak [?]</t>
+          <t>Bandé Yeshé De</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>eft:patsap-nyima-drak-</t>
+          <t>eft:band-yesh-de</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -10846,12 +10846,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>909</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>punyasambhava</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>eft:punyasambhava</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -10876,12 +10876,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>909</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>pa tshab nyi ma grags</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -10891,12 +10891,12 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>eft:pa-tshab-nyi-ma-grags</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10906,12 +10906,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>909</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Bandé Yeshé De</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -10921,12 +10921,12 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:band-yesh-de</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10936,12 +10936,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>747</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Buddhākaravarma</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:buddhakaravarma</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -10966,12 +10966,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>747</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Bandé Yeshé De</t>
+          <t>Chökyi Sherab</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>eft:band-yesh-de</t>
+          <t>eft:ch-kyi-sherab</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -10996,12 +10996,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>830</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>vajrvisramitra</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:vajrvisramitra</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -11026,12 +11026,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>830</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>vairocanaraksita</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -11041,160 +11041,10 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:vairocanaraksita</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>909</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>Bandé Yeshé De</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>translatorTib</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>eft:band-yesh-de</t>
-        </is>
-      </c>
-      <c r="F355" t="inlineStr">
-        <is>
-          <t>bo</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>747</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>Buddhākaravarma</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>translatorTib</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>eft:buddhakaravarma</t>
-        </is>
-      </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>747</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>Chökyi Sherab</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>translatorTib</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>eft:ch-kyi-sherab</t>
-        </is>
-      </c>
-      <c r="F357" t="inlineStr">
-        <is>
-          <t>bo</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>830</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>vajrvisramitra</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>translatorTib</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>eft:vajrvisramitra</t>
-        </is>
-      </c>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>830</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>vairocanaraksita</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>translatorTib</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>eft:vairocanaraksita</t>
-        </is>
-      </c>
-      <c r="F359" t="inlineStr">
         <is>
           <t>sa</t>
         </is>
